--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/20/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.529799999999995</v>
+        <v>-7.670899999999997</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.083600000000001</v>
+        <v>5.846100000000003</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>15.72889999999999</v>
+        <v>15.63659999999999</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.41310000000001</v>
+        <v>17.44740000000001</v>
       </c>
     </row>
     <row r="13">
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.580200000000001</v>
+        <v>5.586099999999999</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>6.388200000000003</v>
+        <v>6.174400000000003</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.947999999999999</v>
+        <v>-8.935699999999999</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.207100000000002</v>
+        <v>9.129700000000003</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.293100000000003</v>
+        <v>9.2623</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -845,10 +845,10 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.299400000000004</v>
+        <v>-7.305200000000005</v>
       </c>
       <c r="E24" t="n">
-        <v>16.60080000000001</v>
+        <v>16.59930000000001</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.257900000000001</v>
+        <v>5.731399999999997</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.353499999999997</v>
+        <v>-7.465099999999995</v>
       </c>
       <c r="E25" t="n">
-        <v>17.1818</v>
+        <v>17.0979</v>
       </c>
     </row>
     <row r="26">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>6.319800000000002</v>
+        <v>6.701600000000002</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.920000000000005</v>
+        <v>-8.900700000000008</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.957300000000003</v>
+        <v>4.791499999999997</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.586100000000007</v>
+        <v>-7.708600000000005</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.718200000000007</v>
+        <v>-8.533300000000008</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.065</v>
+        <v>-8.187399999999998</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.9298</v>
+        <v>8.7623</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1137,7 +1137,7 @@
         <v>-8.720000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>16.07080000000001</v>
+        <v>16.2326</v>
       </c>
     </row>
     <row r="42">
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.238999999999999</v>
+        <v>-7.983000000000001</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.222999999999997</v>
+        <v>-7.326499999999998</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.3267</v>
+        <v>16.43780000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.855499999999999</v>
+        <v>-7.755199999999999</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.638000000000001</v>
+        <v>-7.4631</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.557299999999998</v>
+        <v>5.398000000000001</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1341,7 +1341,7 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>16.63</v>
+        <v>16.517</v>
       </c>
     </row>
     <row r="54">
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.904200000000001</v>
+        <v>-8.843200000000001</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,10 +1389,10 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.333400000000003</v>
+        <v>-7.974099999999998</v>
       </c>
       <c r="E56" t="n">
-        <v>16.4857</v>
+        <v>16.72300000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.156899999999997</v>
+        <v>4.755499999999999</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.198199999999996</v>
+        <v>-8.222699999999998</v>
       </c>
       <c r="E57" t="n">
-        <v>16.61180000000001</v>
+        <v>16.48200000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.28980000000003</v>
+        <v>16.13830000000002</v>
       </c>
     </row>
     <row r="59">
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>6.022700000000001</v>
+        <v>6.105599999999997</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1457,7 +1457,7 @@
         <v>-13.33</v>
       </c>
       <c r="D60" t="n">
-        <v>-7.816599999999999</v>
+        <v>-7.756799999999997</v>
       </c>
       <c r="E60" t="n">
         <v>16.4</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.43559999999999</v>
+        <v>16.48730000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.42240000000002</v>
+        <v>17.49030000000001</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.38880000000001</v>
+        <v>17.4688</v>
       </c>
     </row>
     <row r="65">
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>6.0116</v>
+        <v>6.122200000000001</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.275699999999996</v>
+        <v>5.138899999999995</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.38440000000001</v>
+        <v>17.34400000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1664,7 +1664,7 @@
         <v>-7.37</v>
       </c>
       <c r="E72" t="n">
-        <v>16.93950000000001</v>
+        <v>16.972</v>
       </c>
     </row>
     <row r="73">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.916599999999995</v>
+        <v>-8.136599999999994</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1695,7 +1695,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.228700000000009</v>
+        <v>-7.679100000000009</v>
       </c>
       <c r="E74" t="n">
         <v>16.1</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>8.960900000000004</v>
+        <v>9.463300000000006</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.824299999999999</v>
+        <v>4.620799999999999</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.5391</v>
+        <v>16.64260000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1950,10 +1950,10 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-7.180399999999992</v>
+        <v>-7.137299999999994</v>
       </c>
       <c r="E89" t="n">
-        <v>17.34430000000003</v>
+        <v>17.43440000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.990000000000002</v>
+        <v>-8.139800000000003</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.354600000000001</v>
+        <v>5.4095</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-5.668800000000005</v>
+        <v>-5.773100000000003</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.0415</v>
+        <v>5.955099999999998</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.5612</v>
+        <v>15.21810000000001</v>
       </c>
     </row>
     <row r="99">
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.5932</v>
+        <v>5.579700000000002</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>17.02580000000001</v>
+        <v>16.89340000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.54369999999998</v>
+        <v>16.81179999999998</v>
       </c>
     </row>
   </sheetData>
